--- a/documentation/Database Testing.xlsx
+++ b/documentation/Database Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D5CD94-5718-4FCD-8248-4C15FCCD65A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC6799-A707-40DE-B1EA-A68E8704F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <definedName name="_ITEM6">'SELECT Queries'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DELETE Queries'!$B$1:$H$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'INSERT INTO Queries'!$B$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'LEFT JOIN Queries'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'LEFT JOIN Queries'!$B$1:$H$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SELECT Queries'!$B$1:$H$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UNION Queries'!$B$1:$H$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'UPDATE Queries'!$B$1:$H$18</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="259">
   <si>
     <t>STEP DESCRIPTION</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Database TESTING - SIMPLY RUGBY</t>
   </si>
   <si>
-    <t>Database Testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST ID </t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>Testing if SELECT queries work as expected and retrieve expected records</t>
-  </si>
-  <si>
-    <t>Test cases aim to ensure that different SELECT querries work as expected</t>
   </si>
   <si>
     <t>Select all Player Records</t>
@@ -239,9 +233,6 @@
   </si>
   <si>
     <t>Join guardians with their addresses</t>
-  </si>
-  <si>
-    <t>Join juniors with their detailed information</t>
   </si>
   <si>
     <t>Join juniors with their associated guardians</t>
@@ -662,6 +653,225 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Retrieve and return all records from the guardians table along with their associated address information from the addresses table. Each guardian row will be joined with their corresponding address. Results should be empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Retrieve and return all records from the players table along with their associated address and doctor information from addresses and doctors tables. Each player row will be joined with their corresponding address and doctor.  Results should be empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Retrieve and return all guardians associated with a specific junior, along with their guardian details. Results should be empty if no record with that ID number exist</t>
+  </si>
+  <si>
+    <t>Retrieve and return all information about a specific player from the players including associated positions from the player positions table. Each player row will be joined with their corresponding position column. Results should be empty if no record with the ID number exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve and return all guardians along with their associated address information. </t>
+  </si>
+  <si>
+    <t>Retrieve and return information about a junior player along with their associated guardian. Each junior player record  will be joined with their corresponding guardian record.  Results should be empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Retrieve and return all information about a specific junior from the juniors table, including their address information and associated doctor details. Additionally, include any skills and associated comments for the junior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves and returns all guardians along with their associated address information. </t>
+  </si>
+  <si>
+    <t>Retrieves and returns all information about a specific junior from the juniors table, including their address information and associated doctor details and any skills and associated comments for the junior.</t>
+  </si>
+  <si>
+    <t>Retrieves and returns all guardians associated with a specific junior, along with their guardian details. Results are empty if no record with that ID number exist</t>
+  </si>
+  <si>
+    <t>Retrieve and return of both training sessions and games into one table. Each entry will include information like ID, type (showing if it's a session or a game), name, start time, end time, and location.</t>
+  </si>
+  <si>
+    <t>Retrieves and returns records containing information about both training sessions and games into one table. Each entry include information like ID, type (showing if it's a session or a game), name, start time, end time, and location.</t>
+  </si>
+  <si>
+    <t>Retrieves and returns all records from the players table along with their associated address and doctor information from addresses and doctors tables. Each player row is joined with their corresponding address and doctor.  Results should be empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Retrieves and returns all information about a specific player from the players including associated positions from the player positions table. Each player row is joined with their corresponding position column. Results are empty if no record with the ID number exist</t>
+  </si>
+  <si>
+    <t>Retrieves and returns information about a junior player along with their associated guardian. Each junior player record  is joined with their corresponding guardian record.  Results are empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Retrieves and returns all records from the guardians table along with their associated address information from the addresses table. Each guardian row is joined with their corresponding address. Results are empty if no record exists with these parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside sessions table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside sessions table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside games table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside users table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside doctors table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside members table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside juniors table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside junior associations table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside training details table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside addresses table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside training details table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside users table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside games table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside doctors   table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside members table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside juniors table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside junior associations table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside addresses  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside guardians table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside guardians  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Create a new record inside players table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside players  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the players table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the players table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the juniors table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the juniors table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the junior associations table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the junior associations table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the members table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the members table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the coaches table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the coaches table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the player skills table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the player skills table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the games table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the game halves table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the training details table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the games table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the game halves table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Update existing record with specific ID in the sessions table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the sessions table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Existing record has been updated with specific ID in the training details table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Delete record that matches the specified ID number</t>
+  </si>
+  <si>
+    <t>Delete record that matches the specified ID number. If the ID column with that ID number is used elsewhere throw error.</t>
+  </si>
+  <si>
+    <t>Record with that ID number has been deleted from the database. Error is thrown if the ID column with that ID number is used elsewhere.</t>
+  </si>
+  <si>
+    <t>SELECT Queries</t>
+  </si>
+  <si>
+    <t>DELETE Queries</t>
+  </si>
+  <si>
+    <t>Update Queries</t>
+  </si>
+  <si>
+    <t>INSERT INTO Queries</t>
+  </si>
+  <si>
+    <t>UNION Queries</t>
+  </si>
+  <si>
+    <t>LEFT JOIN Queries</t>
+  </si>
+  <si>
+    <t>Testing to see if all LEFT JOIN Queries, work and output results as expected</t>
+  </si>
+  <si>
+    <t>Carrying out small individual tests for all the queries to see if they work as expected</t>
+  </si>
+  <si>
+    <t>Testing to see if all UNION Queries, work and output results as expected</t>
+  </si>
+  <si>
+    <t>Testing to see if all DELETE Queries, work and output results as expected</t>
+  </si>
+  <si>
+    <t>Testing to see if all UPDATE Queries, work and output results as expected</t>
+  </si>
+  <si>
+    <t>Testing to see if all INSERT INTO Queries, work and output results as expected</t>
+  </si>
 </sst>
 </file>
 
@@ -931,7 +1141,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1015,6 +1225,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1333,9 +1552,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1519,10 +1738,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1534,13 +1753,17 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="23" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -1569,7 +1792,7 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -1612,7 +1835,7 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="29" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1645,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -1666,22 +1889,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="13">
         <v>45392</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I11" s="18"/>
     </row>
@@ -1692,48 +1915,48 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="13">
         <v>45392</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:B30" si="0">B12+1</f>
+        <f t="shared" ref="B13:B29" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13">
         <v>45392</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13" s="18"/>
     </row>
@@ -1744,22 +1967,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13">
         <v>45392</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -1770,22 +1993,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13">
         <v>45392</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I15" s="18"/>
     </row>
@@ -1796,22 +2019,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="13">
         <v>45392</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I16" s="18"/>
     </row>
@@ -1822,22 +2045,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="13">
         <v>45392</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I17" s="18"/>
     </row>
@@ -1848,22 +2071,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="13">
         <v>45392</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I18" s="18"/>
     </row>
@@ -1874,22 +2097,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13">
         <v>45392</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I19" s="18"/>
     </row>
@@ -1899,22 +2122,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="13">
         <v>45392</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I20" s="18"/>
     </row>
@@ -1925,22 +2148,22 @@
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13">
         <v>45392</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I21" s="18"/>
     </row>
@@ -1951,22 +2174,22 @@
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="13">
         <v>45392</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I22" s="18"/>
     </row>
@@ -1977,22 +2200,22 @@
         <v>13</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13">
         <v>45392</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I23" s="18"/>
     </row>
@@ -2003,22 +2226,22 @@
         <v>14</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="13">
         <v>45392</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I24" s="18"/>
     </row>
@@ -2029,22 +2252,22 @@
         <v>15</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="13">
         <v>45392</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I25" s="18"/>
     </row>
@@ -2055,22 +2278,22 @@
         <v>16</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13">
         <v>45392</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I26" s="18"/>
     </row>
@@ -2081,22 +2304,22 @@
         <v>17</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="13">
         <v>45392</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I27" s="18"/>
     </row>
@@ -2107,22 +2330,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="13">
         <v>45392</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G28" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="I28" s="18"/>
     </row>
@@ -2133,22 +2356,22 @@
         <v>19</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="13">
         <v>45392</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I29" s="18"/>
     </row>
@@ -10871,9 +11094,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10881,12 +11104,12 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="110.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="7" max="7" width="75.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:156" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -11057,10 +11280,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -11071,12 +11294,18 @@
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -11104,10 +11333,16 @@
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45392</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22" t="s">
         <v>12</v>
@@ -11141,7 +11376,9 @@
     <row r="8" spans="1:156" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -11173,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -11194,188 +11431,211 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45392</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:156" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:156" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="17">
         <f>B11+1</f>
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="D12" s="31">
+        <v>45392</v>
+      </c>
       <c r="E12" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:156" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:156" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:B19" si="0">B12+1</f>
+        <f t="shared" ref="B13:B18" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="31">
+        <v>45392</v>
+      </c>
       <c r="E13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:156" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:156" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="D14" s="31">
+        <v>45392</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:156" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:156" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:156" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="17">
-        <f>B16+1</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="17">
-        <f t="shared" si="0"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="25">
+        <v>2</v>
+      </c>
+      <c r="F19" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="33">
+        <v>45393</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -11389,6 +11649,13 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -11400,65 +11667,99 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="31">
+        <v>45393</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="17">
+        <f>B28+1</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="31">
+        <v>45393</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="17">
+        <f>B29+1</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="31">
+        <v>45393</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -20131,12 +20432,13 @@
       <c r="H900" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:H20"/>
+  <mergeCells count="2">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20148,9 +20450,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20158,10 +20460,10 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -20334,10 +20636,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -20348,12 +20650,18 @@
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>251</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -20381,10 +20689,16 @@
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45393</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22" t="s">
         <v>12</v>
@@ -20418,7 +20732,9 @@
     <row r="8" spans="1:156" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -20450,7 +20766,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -20471,14 +20787,20 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45393</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="18"/>
     </row>
@@ -29311,9 +29633,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29321,10 +29643,10 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="79" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -29497,10 +29819,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -29511,12 +29833,18 @@
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>250</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>4</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -29544,10 +29872,16 @@
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45393</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22" t="s">
         <v>12</v>
@@ -29581,7 +29915,9 @@
     <row r="8" spans="1:156" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -29613,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -29634,15 +29970,23 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45393</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:156" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29652,15 +29996,23 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="31">
+        <v>45393</v>
+      </c>
       <c r="E12" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:156" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29670,15 +30022,23 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="D13" s="31">
+        <v>45393</v>
+      </c>
       <c r="E13" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:156" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29688,15 +30048,23 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="D14" s="31">
+        <v>45393</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:156" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -29706,15 +30074,23 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="31">
+        <v>45393</v>
+      </c>
       <c r="E15" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:156" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29724,15 +30100,23 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="31">
+        <v>45393</v>
+      </c>
       <c r="E16" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29742,15 +30126,23 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="D17" s="31">
+        <v>45393</v>
+      </c>
       <c r="E17" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29760,15 +30152,23 @@
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="D18" s="31">
+        <v>45393</v>
+      </c>
       <c r="E18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29778,15 +30178,23 @@
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="D19" s="31">
+        <v>45393</v>
+      </c>
       <c r="E19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29795,15 +30203,23 @@
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="D20" s="31">
+        <v>45393</v>
+      </c>
       <c r="E20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29813,15 +30229,23 @@
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="D21" s="31">
+        <v>45393</v>
+      </c>
       <c r="E21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -38617,9 +39041,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38627,10 +39051,10 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="60.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -38803,10 +39227,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -38817,12 +39241,18 @@
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>5</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -38850,10 +39280,16 @@
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45393</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22" t="s">
         <v>12</v>
@@ -38887,7 +39323,9 @@
     <row r="8" spans="1:156" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -38919,7 +39357,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -38940,15 +39378,23 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45393</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38958,15 +39404,23 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="D12" s="31">
+        <v>45393</v>
+      </c>
       <c r="E12" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38976,15 +39430,23 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="D13" s="31">
+        <v>45393</v>
+      </c>
       <c r="E13" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38994,15 +39456,23 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="D14" s="31">
+        <v>45393</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39012,15 +39482,23 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="31">
+        <v>45393</v>
+      </c>
       <c r="E15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39030,15 +39508,23 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="D16" s="31">
+        <v>45393</v>
+      </c>
       <c r="E16" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+        <v>127</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39048,15 +39534,23 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="31">
+        <v>45393</v>
+      </c>
       <c r="E17" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39066,33 +39560,49 @@
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="31">
+        <v>45393</v>
+      </c>
       <c r="E18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="D19" s="31">
+        <v>45393</v>
+      </c>
       <c r="E19" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39101,15 +39611,23 @@
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="31">
+        <v>45393</v>
+      </c>
       <c r="E20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+        <v>131</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -39118,7 +39636,7 @@
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -47910,8 +48428,8 @@
   <dimension ref="A1:EZ900"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47919,9 +48437,10 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -48094,10 +48613,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -48108,12 +48627,18 @@
     <row r="3" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>248</v>
+      </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25">
+        <v>6</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="J3" s="13" t="s">
@@ -48141,10 +48666,16 @@
     <row r="5" spans="1:156" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26">
+        <v>45393</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22" t="s">
         <v>12</v>
@@ -48178,7 +48709,9 @@
     <row r="8" spans="1:156" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -48210,7 +48743,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -48225,272 +48758,392 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:156" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="17">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45393</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:156" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="17">
         <f>B11+1</f>
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="D12" s="31">
+        <v>45393</v>
+      </c>
       <c r="E12" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+        <v>133</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:156" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
         <f t="shared" ref="B13:B18" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="D13" s="31">
+        <v>45393</v>
+      </c>
       <c r="E13" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+        <v>134</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:156" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="D14" s="31">
+        <v>45393</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:156" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="31">
+        <v>45393</v>
+      </c>
       <c r="E15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:156" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="D16" s="31">
+        <v>45393</v>
+      </c>
       <c r="E16" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="17">
         <f>B16+1</f>
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="D17" s="31">
+        <v>45393</v>
+      </c>
       <c r="E17" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="D18" s="31">
+        <v>45393</v>
+      </c>
       <c r="E18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+        <v>139</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="17">
         <f>B18+1</f>
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="D19" s="31">
+        <v>45393</v>
+      </c>
       <c r="E19" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17">
         <f t="shared" ref="B20:B25" si="1">B19+1</f>
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="D20" s="31">
+        <v>45393</v>
+      </c>
       <c r="E20" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="D21" s="31">
+        <v>45393</v>
+      </c>
       <c r="E21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="D22" s="31">
+        <v>45393</v>
+      </c>
       <c r="E22" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="31">
+        <v>45393</v>
+      </c>
       <c r="E23" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="31">
+        <v>45393</v>
+      </c>
       <c r="E24" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+        <v>145</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="D25" s="31">
+        <v>45393</v>
+      </c>
       <c r="E25" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">

--- a/documentation/Database Testing.xlsx
+++ b/documentation/Database Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC6799-A707-40DE-B1EA-A68E8704F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EDED2-2AEF-405A-9FA7-35636F335362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="270">
   <si>
     <t>STEP DESCRIPTION</t>
   </si>
@@ -872,6 +872,39 @@
   <si>
     <t>Testing to see if all INSERT INTO Queries, work and output results as expected</t>
   </si>
+  <si>
+    <t>Create new coach record</t>
+  </si>
+  <si>
+    <t>INSERT INTO simplyrugby.coaches (first_name, last_name,  dob, contact_no, mobile_no, email_address, filename) VALUES (?, ?,  ?, ?, ?, ?, ?);</t>
+  </si>
+  <si>
+    <t>Create a new record inside coaches table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside coaches  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>INSERT INTO simplyrugby.player_skills (player_id, skill_id, squad_id, skill_level, comment) VALUES (?, ?, ?, ?, ?)</t>
+  </si>
+  <si>
+    <t>Create new player skills record</t>
+  </si>
+  <si>
+    <t>Create a new record inside player_skills table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside player_skills  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>Select a coach by their first &amp; last name and email address</t>
+  </si>
+  <si>
+    <t>Retrieve &amp; return single record from the coaches table that match the specified parameters. Results should be empty if no records with that parameters exist.</t>
+  </si>
+  <si>
+    <t>Retrievse &amp; returns single record from the coaches table that match the specified parameters. Results are empty if no records with that parameters exist.</t>
+  </si>
 </sst>
 </file>
 
@@ -1224,16 +1257,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1553,8 +1586,8 @@
   <dimension ref="A1:EZ900"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1598,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1761,7 +1794,7 @@
       <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -1891,7 +1924,7 @@
       <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="30">
         <v>45392</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1917,7 +1950,7 @@
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="30">
         <v>45392</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -1943,7 +1976,7 @@
       <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="30">
         <v>45392</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1969,7 +2002,7 @@
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="30">
         <v>45392</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -1995,7 +2028,7 @@
       <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="30">
         <v>45392</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -2021,7 +2054,7 @@
       <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="30">
         <v>45392</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -2047,7 +2080,7 @@
       <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="30">
         <v>45392</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -2073,7 +2106,7 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="30">
         <v>45392</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -2099,7 +2132,7 @@
       <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="30">
         <v>45392</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -2116,7 +2149,7 @@
       </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2124,7 +2157,7 @@
       <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="30">
         <v>45392</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -2150,7 +2183,7 @@
       <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="30">
         <v>45392</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -2176,7 +2209,7 @@
       <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="30">
         <v>45392</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -2202,7 +2235,7 @@
       <c r="C23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="30">
         <v>45392</v>
       </c>
       <c r="E23" s="19" t="s">
@@ -2228,7 +2261,7 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="30">
         <v>45392</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -2254,7 +2287,7 @@
       <c r="C25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="30">
         <v>45392</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -2271,7 +2304,7 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17">
         <f t="shared" si="0"/>
@@ -2280,7 +2313,7 @@
       <c r="C26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="30">
         <v>45392</v>
       </c>
       <c r="E26" s="19" t="s">
@@ -2306,7 +2339,7 @@
       <c r="C27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="30">
         <v>45392</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2332,7 +2365,7 @@
       <c r="C28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="30">
         <v>45392</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -2358,7 +2391,7 @@
       <c r="C29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="30">
         <v>45392</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -2391,13 +2424,13 @@
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2422,38 +2455,70 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="C36" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>2</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
+      <c r="C38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="32">
+        <v>45397</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -2475,15 +2540,31 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="17">
+        <f t="shared" ref="B41" si="2">B40+1</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="30">
+        <v>45397</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -11303,7 +11384,7 @@
       <c r="E3" s="25">
         <v>2</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -11340,7 +11421,7 @@
       <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>45392</v>
       </c>
       <c r="H5" s="16"/>
@@ -11433,7 +11514,7 @@
       <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>45392</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -11459,7 +11540,7 @@
       <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>45392</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -11479,13 +11560,13 @@
     <row r="13" spans="1:156" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:B18" si="0">B12+1</f>
+        <f t="shared" ref="B13:B14" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>45392</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -11511,7 +11592,7 @@
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>45392</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -11533,13 +11614,13 @@
     </row>
     <row r="16" spans="1:156" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -11572,7 +11653,7 @@
       <c r="E19" s="25">
         <v>2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>2</v>
       </c>
     </row>
@@ -11599,7 +11680,7 @@
       <c r="E21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <v>45393</v>
       </c>
       <c r="G21" s="1"/>
@@ -11675,7 +11756,7 @@
       <c r="C28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>45393</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -11701,7 +11782,7 @@
       <c r="C29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>45393</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -11727,7 +11808,7 @@
       <c r="C30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>45393</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -11746,13 +11827,13 @@
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -20659,7 +20740,7 @@
       <c r="E3" s="25">
         <v>3</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -20789,7 +20870,7 @@
       <c r="C11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>45393</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -20809,13 +20890,13 @@
     </row>
     <row r="13" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -29633,9 +29714,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F5"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29842,7 +29923,7 @@
       <c r="E3" s="25">
         <v>4</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -29972,7 +30053,7 @@
       <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>45393</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -29998,7 +30079,7 @@
       <c r="C12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>45393</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -30018,13 +30099,13 @@
     <row r="13" spans="1:156" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:B21" si="0">B12+1</f>
+        <f t="shared" ref="B13:B22" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>45393</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -30050,7 +30131,7 @@
       <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>45393</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -30076,7 +30157,7 @@
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>45393</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -30102,7 +30183,7 @@
       <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>45393</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -30128,7 +30209,7 @@
       <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>45393</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -30154,7 +30235,7 @@
       <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>45393</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -30180,7 +30261,7 @@
       <c r="C19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>45393</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -30205,7 +30286,7 @@
       <c r="C20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>45393</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -30231,7 +30312,7 @@
       <c r="C21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>45393</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -30272,78 +30353,108 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C27" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="25">
+        <v>4</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="32">
+        <v>45397</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C31" s="29"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -30353,7 +30464,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -30363,7 +30474,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -30373,27 +30484,59 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="17">
+        <f>B35+1</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="30">
+        <v>45397</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="17">
+        <f>B36+1</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="30">
+        <v>45397</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -30403,7 +30546,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -30413,7 +30556,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -30423,7 +30566,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -30433,7 +30576,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -30443,7 +30586,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30453,7 +30596,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -30463,7 +30606,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -30473,7 +30616,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -30483,7 +30626,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -30493,7 +30636,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -39029,7 +39172,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39250,7 +39393,7 @@
       <c r="E3" s="25">
         <v>5</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -39380,7 +39523,7 @@
       <c r="C11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>45393</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -39406,7 +39549,7 @@
       <c r="C12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>45393</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -39432,7 +39575,7 @@
       <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>45393</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -39458,7 +39601,7 @@
       <c r="C14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>45393</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -39484,7 +39627,7 @@
       <c r="C15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>45393</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -39510,7 +39653,7 @@
       <c r="C16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>45393</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -39536,7 +39679,7 @@
       <c r="C17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>45393</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -39562,7 +39705,7 @@
       <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>45393</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -39588,7 +39731,7 @@
       <c r="C19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>45393</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -39613,7 +39756,7 @@
       <c r="C20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>45393</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -39638,13 +39781,13 @@
     </row>
     <row r="23" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -48636,7 +48779,7 @@
       <c r="E3" s="25">
         <v>6</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -48766,7 +48909,7 @@
       <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>45393</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -48792,7 +48935,7 @@
       <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>45393</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -48818,7 +48961,7 @@
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>45393</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -48844,7 +48987,7 @@
       <c r="C14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>45393</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -48870,7 +49013,7 @@
       <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>45393</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -48896,7 +49039,7 @@
       <c r="C16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>45393</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -48922,7 +49065,7 @@
       <c r="C17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>45393</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -48948,7 +49091,7 @@
       <c r="C18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>45393</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -48974,7 +49117,7 @@
       <c r="C19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>45393</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -48999,7 +49142,7 @@
       <c r="C20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>45393</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -49025,7 +49168,7 @@
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>45393</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -49051,7 +49194,7 @@
       <c r="C22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>45393</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -49077,7 +49220,7 @@
       <c r="C23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>45393</v>
       </c>
       <c r="E23" s="19" t="s">
@@ -49103,7 +49246,7 @@
       <c r="C24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>45393</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -49129,7 +49272,7 @@
       <c r="C25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>45393</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -49159,13 +49302,13 @@
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">

--- a/documentation/Database Testing.xlsx
+++ b/documentation/Database Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EDED2-2AEF-405A-9FA7-35636F335362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47895D5F-6ABA-4F24-8E5B-695681F56235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SELECT Queries" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="274">
   <si>
     <t>STEP DESCRIPTION</t>
   </si>
@@ -905,6 +905,18 @@
   <si>
     <t>Retrievse &amp; returns single record from the coaches table that match the specified parameters. Results are empty if no records with that parameters exist.</t>
   </si>
+  <si>
+    <t>Create new junior skills record</t>
+  </si>
+  <si>
+    <t>Create a new record inside junior_skills table with passed parameters.</t>
+  </si>
+  <si>
+    <t>A new record was created inside junior_skills  table with passed parameters.</t>
+  </si>
+  <si>
+    <t>INSERT INTO simplyrugby.junior_skills (junior_id, skill_id, squad_id, skill_level, comment) VALUES (?, ?, ?, ?, ?)</t>
+  </si>
 </sst>
 </file>
 
@@ -1585,7 +1597,7 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
@@ -1916,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="17">
         <v>1</v>
@@ -1941,7 +1953,7 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="17">
         <f>B11+1</f>
@@ -1967,7 +1979,7 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
         <f t="shared" ref="B13:B29" si="0">B12+1</f>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
@@ -2045,7 +2057,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:156" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:156" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
@@ -2071,7 +2083,7 @@
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="17">
         <f>B16+1</f>
@@ -2123,7 +2135,7 @@
       </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="17">
         <f t="shared" ref="B19" si="1">B18+1</f>
@@ -2149,7 +2161,7 @@
       </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2174,7 +2186,7 @@
       </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="17">
         <f>B20+1</f>
@@ -2252,7 +2264,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="17">
         <f t="shared" si="0"/>
@@ -2278,7 +2290,7 @@
       </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="17">
         <f t="shared" si="0"/>
@@ -2304,7 +2316,7 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="17">
         <f t="shared" si="0"/>
@@ -2330,7 +2342,7 @@
       </c>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="17">
         <f t="shared" si="0"/>
@@ -2356,7 +2368,7 @@
       </c>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="17">
         <f t="shared" si="0"/>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="17">
         <f t="shared" si="0"/>
@@ -2540,7 +2552,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="17">
         <f t="shared" ref="B41" si="2">B40+1</f>
@@ -29714,9 +29726,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30099,7 +30111,7 @@
     <row r="13" spans="1:156" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="17">
-        <f t="shared" ref="B13:B22" si="0">B12+1</f>
+        <f t="shared" ref="B13:B21" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -30536,15 +30548,31 @@
       </c>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="B38" s="17">
+        <f>B37+1</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="30">
+        <v>45397</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
